--- a/natmiOut/YoungD2/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H2">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N2">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q2">
-        <v>16.31836690654806</v>
+        <v>29.68606537319866</v>
       </c>
       <c r="R2">
-        <v>16.31836690654806</v>
+        <v>267.174588358788</v>
       </c>
       <c r="S2">
-        <v>0.0008953315877040632</v>
+        <v>0.001285301074598079</v>
       </c>
       <c r="T2">
-        <v>0.0008953315877040632</v>
+        <v>0.001285301074598079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H3">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q3">
-        <v>470.2611331898771</v>
+        <v>602.3425116167507</v>
       </c>
       <c r="R3">
-        <v>470.2611331898771</v>
+        <v>5421.082604550757</v>
       </c>
       <c r="S3">
-        <v>0.0258015798655351</v>
+        <v>0.02607928897697824</v>
       </c>
       <c r="T3">
-        <v>0.0258015798655351</v>
+        <v>0.02607928897697824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H4">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N4">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q4">
-        <v>61.70999041160819</v>
+        <v>139.6168244169502</v>
       </c>
       <c r="R4">
-        <v>61.70999041160819</v>
+        <v>1256.551419752552</v>
       </c>
       <c r="S4">
-        <v>0.003385810847913783</v>
+        <v>0.006044912055509019</v>
       </c>
       <c r="T4">
-        <v>0.003385810847913783</v>
+        <v>0.006044912055509018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H5">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N5">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q5">
-        <v>59.40341898241154</v>
+        <v>81.39597327541044</v>
       </c>
       <c r="R5">
-        <v>59.40341898241154</v>
+        <v>732.5637594786939</v>
       </c>
       <c r="S5">
-        <v>0.003259257359339703</v>
+        <v>0.003524156219547157</v>
       </c>
       <c r="T5">
-        <v>0.003259257359339703</v>
+        <v>0.003524156219547157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H6">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N6">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q6">
-        <v>172.9225022931203</v>
+        <v>223.7982632977544</v>
       </c>
       <c r="R6">
-        <v>172.9225022931203</v>
+        <v>2014.18436967979</v>
       </c>
       <c r="S6">
-        <v>0.009487651516508874</v>
+        <v>0.009689669031365932</v>
       </c>
       <c r="T6">
-        <v>0.009487651516508874</v>
+        <v>0.009689669031365929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H7">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N7">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q7">
-        <v>2529.965032884109</v>
+        <v>3741.706726812445</v>
       </c>
       <c r="R7">
-        <v>2529.965032884109</v>
+        <v>33675.360541312</v>
       </c>
       <c r="S7">
-        <v>0.1388103124963414</v>
+        <v>0.1620025967181485</v>
       </c>
       <c r="T7">
-        <v>0.1388103124963414</v>
+        <v>0.1620025967181485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H8">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N8">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q8">
-        <v>18.70898330404075</v>
+        <v>27.35991578771601</v>
       </c>
       <c r="R8">
-        <v>18.70898330404075</v>
+        <v>246.239242089444</v>
       </c>
       <c r="S8">
-        <v>0.001026496329066732</v>
+        <v>0.001184587068740098</v>
       </c>
       <c r="T8">
-        <v>0.001026496329066732</v>
+        <v>0.001184587068740098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H9">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q9">
-        <v>539.153687361833</v>
+        <v>555.1439770146922</v>
       </c>
       <c r="R9">
-        <v>539.153687361833</v>
+        <v>4996.295793132229</v>
       </c>
       <c r="S9">
-        <v>0.0295814728083157</v>
+        <v>0.02403576025463535</v>
       </c>
       <c r="T9">
-        <v>0.0295814728083157</v>
+        <v>0.02403576025463534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H10">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N10">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q10">
-        <v>70.7504119079474</v>
+        <v>128.6766875493307</v>
       </c>
       <c r="R10">
-        <v>70.7504119079474</v>
+        <v>1158.090187943976</v>
       </c>
       <c r="S10">
-        <v>0.003881827083985995</v>
+        <v>0.005571243029471759</v>
       </c>
       <c r="T10">
-        <v>0.003881827083985995</v>
+        <v>0.005571243029471758</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H11">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N11">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q11">
-        <v>68.10593120681172</v>
+        <v>75.01792326729134</v>
       </c>
       <c r="R11">
-        <v>68.10593120681172</v>
+        <v>675.1613094056221</v>
       </c>
       <c r="S11">
-        <v>0.003736733698210334</v>
+        <v>0.003248009332911353</v>
       </c>
       <c r="T11">
-        <v>0.003736733698210334</v>
+        <v>0.003248009332911353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H12">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N12">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q12">
-        <v>198.2553908011927</v>
+        <v>206.2618120753634</v>
       </c>
       <c r="R12">
-        <v>198.2553908011927</v>
+        <v>1856.35630867827</v>
       </c>
       <c r="S12">
-        <v>0.01087757830384941</v>
+        <v>0.00893040304857505</v>
       </c>
       <c r="T12">
-        <v>0.01087757830384941</v>
+        <v>0.008930403048575047</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H13">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N13">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q13">
-        <v>2900.601134359983</v>
+        <v>3448.512952489275</v>
       </c>
       <c r="R13">
-        <v>2900.601134359983</v>
+        <v>31036.61657240348</v>
       </c>
       <c r="S13">
-        <v>0.1591458161098605</v>
+        <v>0.1493083488120835</v>
       </c>
       <c r="T13">
-        <v>0.1591458161098605</v>
+        <v>0.1493083488120835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H14">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N14">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q14">
-        <v>16.4083734864633</v>
+        <v>27.71861438596</v>
       </c>
       <c r="R14">
-        <v>16.4083734864633</v>
+        <v>249.46752947364</v>
       </c>
       <c r="S14">
-        <v>0.0009002699332236136</v>
+        <v>0.001200117442603522</v>
       </c>
       <c r="T14">
-        <v>0.0009002699332236136</v>
+        <v>0.001200117442603522</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H15">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q15">
-        <v>472.8549341815992</v>
+        <v>562.4221195325199</v>
       </c>
       <c r="R15">
-        <v>472.8549341815992</v>
+        <v>5061.79907579268</v>
       </c>
       <c r="S15">
-        <v>0.02594389263331427</v>
+        <v>0.02435087794644262</v>
       </c>
       <c r="T15">
-        <v>0.02594389263331427</v>
+        <v>0.02435087794644261</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H16">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N16">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q16">
-        <v>62.05036179897556</v>
+        <v>130.3636864351733</v>
       </c>
       <c r="R16">
-        <v>62.05036179897556</v>
+        <v>1173.27317791656</v>
       </c>
       <c r="S16">
-        <v>0.003404485832757907</v>
+        <v>0.005644284082691862</v>
       </c>
       <c r="T16">
-        <v>0.003404485832757907</v>
+        <v>0.005644284082691861</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H17">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N17">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q17">
-        <v>59.73106810370528</v>
+        <v>76.00143594064664</v>
       </c>
       <c r="R17">
-        <v>59.73106810370528</v>
+        <v>684.0129234658199</v>
       </c>
       <c r="S17">
-        <v>0.003277234318042602</v>
+        <v>0.003290591934547933</v>
       </c>
       <c r="T17">
-        <v>0.003277234318042602</v>
+        <v>0.003290591934547933</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H18">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N18">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q18">
-        <v>173.876284194883</v>
+        <v>208.9659805909666</v>
       </c>
       <c r="R18">
-        <v>173.876284194883</v>
+        <v>1880.6938253187</v>
       </c>
       <c r="S18">
-        <v>0.009539982185951413</v>
+        <v>0.00904748392996855</v>
       </c>
       <c r="T18">
-        <v>0.009539982185951413</v>
+        <v>0.009047483929968547</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H19">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N19">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O19">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P19">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q19">
-        <v>2543.919462345043</v>
+        <v>3493.724230611685</v>
       </c>
       <c r="R19">
-        <v>2543.919462345043</v>
+        <v>31443.51807550517</v>
       </c>
       <c r="S19">
-        <v>0.1395759431232486</v>
+        <v>0.1512658363950338</v>
       </c>
       <c r="T19">
-        <v>0.1395759431232486</v>
+        <v>0.1512658363950338</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H20">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N20">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O20">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P20">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q20">
-        <v>14.59707382973156</v>
+        <v>21.210694812948</v>
       </c>
       <c r="R20">
-        <v>14.59707382973156</v>
+        <v>190.896253316532</v>
       </c>
       <c r="S20">
-        <v>0.0008008902706166456</v>
+        <v>0.0009183476655908368</v>
       </c>
       <c r="T20">
-        <v>0.0008008902706166456</v>
+        <v>0.0009183476655908365</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H21">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N21">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O21">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P21">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q21">
-        <v>420.6570743100141</v>
+        <v>430.373746946676</v>
       </c>
       <c r="R21">
-        <v>420.6570743100141</v>
+        <v>3873.363722520085</v>
       </c>
       <c r="S21">
-        <v>0.02307997904311136</v>
+        <v>0.0186336529437401</v>
       </c>
       <c r="T21">
-        <v>0.02307997904311136</v>
+        <v>0.0186336529437401</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H22">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N22">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O22">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P22">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q22">
-        <v>55.20070061108958</v>
+        <v>99.75622623719201</v>
       </c>
       <c r="R22">
-        <v>55.20070061108958</v>
+        <v>897.8060361347282</v>
       </c>
       <c r="S22">
-        <v>0.003028668935043469</v>
+        <v>0.004319089888425206</v>
       </c>
       <c r="T22">
-        <v>0.003028668935043469</v>
+        <v>0.004319089888425205</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H23">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N23">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O23">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P23">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q23">
-        <v>53.13743082200165</v>
+        <v>58.157425931774</v>
       </c>
       <c r="R23">
-        <v>53.13743082200165</v>
+        <v>523.416833385966</v>
       </c>
       <c r="S23">
-        <v>0.002915464554561948</v>
+        <v>0.00251800974990284</v>
       </c>
       <c r="T23">
-        <v>0.002915464554561948</v>
+        <v>0.002518009749902839</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H24">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N24">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O24">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P24">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q24">
-        <v>154.6823004562872</v>
+        <v>159.90386744759</v>
       </c>
       <c r="R24">
-        <v>154.6823004562872</v>
+        <v>1439.13480702831</v>
       </c>
       <c r="S24">
-        <v>0.008486875583222243</v>
+        <v>0.006923268883195585</v>
       </c>
       <c r="T24">
-        <v>0.008486875583222243</v>
+        <v>0.006923268883195582</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H25">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N25">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O25">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P25">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q25">
-        <v>2263.099401008667</v>
+        <v>2673.449595432926</v>
       </c>
       <c r="R25">
-        <v>2263.099401008667</v>
+        <v>24061.04635889634</v>
       </c>
       <c r="S25">
-        <v>0.1241683307797267</v>
+        <v>0.1157508613787537</v>
       </c>
       <c r="T25">
-        <v>0.1241683307797267</v>
+        <v>0.1157508613787537</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H26">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N26">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O26">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P26">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q26">
-        <v>15.39128290860839</v>
+        <v>22.59199504286066</v>
       </c>
       <c r="R26">
-        <v>15.39128290860839</v>
+        <v>203.327955385746</v>
       </c>
       <c r="S26">
-        <v>0.0008444657386541019</v>
+        <v>0.0009781530539954646</v>
       </c>
       <c r="T26">
-        <v>0.0008444657386541019</v>
+        <v>0.0009781530539954644</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H27">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N27">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O27">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P27">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q27">
-        <v>443.5445154100446</v>
+        <v>458.4008983836446</v>
       </c>
       <c r="R27">
-        <v>443.5445154100446</v>
+        <v>4125.608085452802</v>
       </c>
       <c r="S27">
-        <v>0.02433573270375192</v>
+        <v>0.0198471289435734</v>
       </c>
       <c r="T27">
-        <v>0.02433573270375192</v>
+        <v>0.0198471289435734</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H28">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N28">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O28">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P28">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q28">
-        <v>58.20410376552134</v>
+        <v>106.2526328590316</v>
       </c>
       <c r="R28">
-        <v>58.20410376552134</v>
+        <v>956.273695731284</v>
       </c>
       <c r="S28">
-        <v>0.003193455137619521</v>
+        <v>0.004600361195589236</v>
       </c>
       <c r="T28">
-        <v>0.003193455137619521</v>
+        <v>0.004600361195589235</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H29">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N29">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O29">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P29">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q29">
-        <v>56.02857397023078</v>
+        <v>61.9448014288581</v>
       </c>
       <c r="R29">
-        <v>56.02857397023078</v>
+        <v>557.5032128597229</v>
       </c>
       <c r="S29">
-        <v>0.003074091444128024</v>
+        <v>0.002681989641987276</v>
       </c>
       <c r="T29">
-        <v>0.003074091444128024</v>
+        <v>0.002681989641987275</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H30">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N30">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O30">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P30">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q30">
-        <v>163.0983767738375</v>
+        <v>170.3172579950061</v>
       </c>
       <c r="R30">
-        <v>163.0983767738375</v>
+        <v>1532.855321955055</v>
       </c>
       <c r="S30">
-        <v>0.008948636187992517</v>
+        <v>0.007374131666543327</v>
       </c>
       <c r="T30">
-        <v>0.008948636187992517</v>
+        <v>0.007374131666543325</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H31">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N31">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O31">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P31">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q31">
-        <v>2386.231893975913</v>
+        <v>2847.55216837538</v>
       </c>
       <c r="R31">
-        <v>2386.231893975913</v>
+        <v>25627.96951537842</v>
       </c>
       <c r="S31">
-        <v>0.1309241790246933</v>
+        <v>0.123288883722909</v>
       </c>
       <c r="T31">
-        <v>0.1309241790246933</v>
+        <v>0.123288883722909</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H32">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N32">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O32">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P32">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q32">
-        <v>8.415007688829281</v>
+        <v>13.725986656658</v>
       </c>
       <c r="R32">
-        <v>8.415007688829281</v>
+        <v>123.533879909922</v>
       </c>
       <c r="S32">
-        <v>0.0004617019728584585</v>
+        <v>0.0005942864161327722</v>
       </c>
       <c r="T32">
-        <v>0.0004617019728584585</v>
+        <v>0.000594286416132772</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H33">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N33">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O33">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P33">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q33">
-        <v>242.5028848911629</v>
+        <v>278.505931090946</v>
       </c>
       <c r="R33">
-        <v>242.5028848911629</v>
+        <v>2506.553379818514</v>
       </c>
       <c r="S33">
-        <v>0.01330528319382847</v>
+        <v>0.01205831652032642</v>
       </c>
       <c r="T33">
-        <v>0.01330528319382847</v>
+        <v>0.01205831652032641</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H34">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N34">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O34">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P34">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q34">
-        <v>31.82242725421801</v>
+        <v>64.55482209919866</v>
       </c>
       <c r="R34">
-        <v>31.82242725421801</v>
+        <v>580.9933988927879</v>
       </c>
       <c r="S34">
-        <v>0.001745985029095237</v>
+        <v>0.002794994256446577</v>
       </c>
       <c r="T34">
-        <v>0.001745985029095237</v>
+        <v>0.002794994256446576</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H35">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N35">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O35">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P35">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q35">
-        <v>30.63298125005106</v>
+        <v>37.63516751171233</v>
       </c>
       <c r="R35">
-        <v>30.63298125005106</v>
+        <v>338.716507605411</v>
       </c>
       <c r="S35">
-        <v>0.0016807242964804</v>
+        <v>0.001629468932220116</v>
       </c>
       <c r="T35">
-        <v>0.0016807242964804</v>
+        <v>0.001629468932220115</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H36">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N36">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O36">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P36">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q36">
-        <v>89.17216990532927</v>
+        <v>103.4779091533483</v>
       </c>
       <c r="R36">
-        <v>89.17216990532927</v>
+        <v>931.3011823801348</v>
       </c>
       <c r="S36">
-        <v>0.004892564367352113</v>
+        <v>0.004480225525341498</v>
       </c>
       <c r="T36">
-        <v>0.004892564367352113</v>
+        <v>0.004480225525341495</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H37">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N37">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O37">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P37">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q37">
-        <v>1304.644963929945</v>
+        <v>1730.058057869904</v>
       </c>
       <c r="R37">
-        <v>1304.644963929945</v>
+        <v>15570.52252082914</v>
       </c>
       <c r="S37">
-        <v>0.07158129570409338</v>
+        <v>0.07490536226147428</v>
       </c>
       <c r="T37">
-        <v>0.07158129570409338</v>
+        <v>0.07490536226147425</v>
       </c>
     </row>
   </sheetData>
